--- a/URS/DbLayouts/L6-共同作業/CdGuarantor.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdGuarantor.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20952" windowHeight="7812"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -900,7 +900,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
